--- a/src/data/DATA.xlsx
+++ b/src/data/DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HULTIE\TEST_FROM\form-hultprize\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12672957-8B9E-4B46-8F9E-2302095C1D2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138101BC-043C-4FEC-9C7D-91DD0BA482B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7A73DD6D-15C4-476D-AEF4-1C5144A6AA48}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Chefaza</t>
   </si>
@@ -159,13 +159,7 @@
     <t>Peru</t>
   </si>
   <si>
-    <t>Universidad Antonio Ruiz de Montoya</t>
-  </si>
-  <si>
     <t>Universidad Nacional Del Callao</t>
-  </si>
-  <si>
-    <t>Universidad Nacional Mayor De San Marcos</t>
   </si>
   <si>
     <t>Universidad Peruana Cayetano Heredia</t>
@@ -557,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5501976E-397F-4D19-953B-B4428928FDA7}">
   <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -592,7 +586,7 @@
         <v>24</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>25</v>
@@ -607,7 +601,7 @@
         <v>28</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>29</v>
@@ -622,7 +616,7 @@
         <v>32</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>33</v>
@@ -637,7 +631,7 @@
         <v>36</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>37</v>
@@ -674,9 +668,7 @@
       <c r="H2" s="2">
         <v>914900311</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
         <v>5</v>
       </c>
@@ -690,7 +682,7 @@
         <v>989904640</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>8</v>
@@ -704,9 +696,7 @@
       <c r="R2" s="2">
         <v>922351538</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="S2" s="2"/>
       <c r="T2" s="2" t="s">
         <v>11</v>
       </c>
@@ -720,7 +710,7 @@
         <v>986448172</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>14</v>
